--- a/Docs/Documento de analisis.xlsx
+++ b/Docs/Documento de analisis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sofiaescobar/Desktop/EDA/Modulo 3/Reto3-G_19/Docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE612A2E-E4AE-324A-B320-A9972936A0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A71C2B-FDBC-8E43-A782-78523150BDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{6CA6B4F5-C0DE-5F41-8226-6FA006D8C271}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16340" activeTab="4" xr2:uid="{6CA6B4F5-C0DE-5F41-8226-6FA006D8C271}"/>
   </bookViews>
   <sheets>
     <sheet name="Requerimiento1" sheetId="1" r:id="rId1"/>
@@ -21,31 +21,41 @@
     <sheet name="BONO" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Requerimiento 3'!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Requerimiento 3'!$C$1</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Requerimiento 3'!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Requerimiento 3'!$C$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Requerimiento 3'!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Requerimiento 3'!$D$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Requerimiento 3'!$D$2:$D$9</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Requerimiento1!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Requerimiento1!$C$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'Requerimiento 2'!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'Requerimiento 2'!$C$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'Requerimiento 2'!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'Requerimiento 2'!$D$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'Requerimiento 2'!$D$2:$D$9</definedName>
     <definedName name="_xlchart.v1.15" hidden="1">'Requerimiento 3'!$A$2:$A$9</definedName>
     <definedName name="_xlchart.v1.16" hidden="1">'Requerimiento 3'!$C$1</definedName>
     <definedName name="_xlchart.v1.17" hidden="1">'Requerimiento 3'!$C$2:$C$9</definedName>
     <definedName name="_xlchart.v1.18" hidden="1">'Requerimiento 3'!$D$1</definedName>
     <definedName name="_xlchart.v1.19" hidden="1">'Requerimiento 3'!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Requerimiento 3'!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">'Requerimiento 3'!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">'Requerimiento 3'!$C$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">'Requerimiento 3'!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">'Requerimiento 3'!$D$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">'Requerimiento 3'!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Requerimiento 3'!$D$1</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Requerimiento 3'!$D$2:$D$9</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Requerimiento 3'!$A$2:$A$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Requerimiento 3'!$C$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Requerimiento 3'!$C$2:$C$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Requerimiento 3'!$D$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Requerimiento 3'!$D$2:$D$9</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Requerimiento1!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">'Requerimiento 4'!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">'Requerimiento 4'!$C$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">'Requerimiento 4'!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">'Requerimiento 4'!$D$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">'Requerimiento 4'!$D$2:$D$9</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">'Requerimiento 5'!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">'Requerimiento 5'!$C$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">'Requerimiento 5'!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">'Requerimiento 5'!$D$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">'Requerimiento 5'!$D$2:$D$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Requerimiento1!$D$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">'Requerimiento 5'!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">'Requerimiento 5'!$C$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">'Requerimiento 5'!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">'Requerimiento 5'!$D$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">'Requerimiento 5'!$D$2:$D$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Requerimiento1!$D$2:$D$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Requerimiento1!$A$2:$A$9</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Requerimiento1!$C$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Requerimiento1!$C$2:$C$9</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Requerimiento1!$D$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Requerimiento1!$D$2:$D$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -125,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,13 +143,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -192,13 +218,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-MX"/>
-              <a:t>Requerimiento</a:t>
+              <a:t>Requerimiento 1</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="es-MX" baseline="0"/>
-              <a:t> 1</a:t>
-            </a:r>
-            <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -234,8 +255,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -252,7 +273,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -275,7 +296,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.17280293162640523"/>
+                  <c:y val="5.7139499064521378E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
             <c:strRef>
               <c:f>Requerimiento1!$A$2:$A$9</c:f>
               <c:strCache>
@@ -306,8 +377,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Requerimiento1!$C$2:$C$9</c:f>
               <c:numCache>
@@ -339,11 +410,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BE0A-DE4E-AB38-4D06444934F1}"/>
+              <c16:uniqueId val="{00000001-0D22-4747-805B-3187EFD12530}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -362,7 +433,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -385,7 +456,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9725924609377424E-4"/>
+                  <c:y val="-6.7426347287385321E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
             <c:strRef>
               <c:f>Requerimiento1!$A$2:$A$9</c:f>
               <c:strCache>
@@ -416,8 +537,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>Requerimiento1!$D$2:$D$9</c:f>
               <c:numCache>
@@ -449,11 +570,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BE0A-DE4E-AB38-4D06444934F1}"/>
+              <c16:uniqueId val="{00000002-0D22-4747-805B-3187EFD12530}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -465,30 +586,74 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="819305312"/>
-        <c:axId val="819971200"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="819305312"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="874431472"/>
+        <c:axId val="784994128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="874431472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Archivo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -497,8 +662,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -525,12 +690,15 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="819971200"/>
+        <c:crossAx val="784994128"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="819971200"/>
+        <c:axId val="784994128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -550,20 +718,69 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tiempo en ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
+          <a:ln>
+            <a:noFill/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -587,9 +804,9 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="819305312"/>
+        <c:crossAx val="874431472"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -751,8 +968,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -792,7 +1009,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
             <c:strRef>
               <c:f>'Requerimiento 2'!$A$2:$A$9</c:f>
               <c:strCache>
@@ -823,8 +1084,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Requerimiento 2'!$C$2:$C$9</c:f>
               <c:numCache>
@@ -856,7 +1117,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -902,7 +1163,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.9872163038443725E-3"/>
+                  <c:y val="-5.1039665618205228E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
             <c:strRef>
               <c:f>'Requerimiento 2'!$A$2:$A$9</c:f>
               <c:strCache>
@@ -933,8 +1244,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Requerimiento 2'!$D$2:$D$9</c:f>
               <c:numCache>
@@ -966,7 +1277,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -982,10 +1293,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="969392400"/>
         <c:axId val="969394048"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="969392400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -1006,6 +1319,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tamaño del archivo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1044,8 +1413,11 @@
         </c:txPr>
         <c:crossAx val="969394048"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="969394048"/>
         <c:scaling>
@@ -1067,6 +1439,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tiempo en ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1106,7 +1533,7 @@
         </c:txPr>
         <c:crossAx val="969392400"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1304,6 +1731,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.10798754293518516"/>
+                  <c:y val="4.7853590301179645E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>'Requerimiento 3'!$A$2:$A$9</c:f>
@@ -1414,6 +1891,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.0085533623929977E-3"/>
+                  <c:y val="-6.2834884404031469E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:cat>
             <c:strRef>
               <c:f>'Requerimiento 3'!$A$2:$A$9</c:f>
@@ -1520,6 +2047,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> del archivo</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1585,6 +2172,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tiempo en ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1781,8 +2423,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -1822,7 +2464,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.3903951864507507E-2"/>
+                  <c:y val="2.7837429412232561E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
             <c:strRef>
               <c:f>'Requerimiento 4'!$A$2:$A$9</c:f>
               <c:strCache>
@@ -1853,8 +2545,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Requerimiento 4'!$C$2:$C$9</c:f>
               <c:numCache>
@@ -1886,7 +2578,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1932,7 +2624,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.5677462487001311E-3"/>
+                  <c:y val="-4.0794559770937724E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
             <c:strRef>
               <c:f>'Requerimiento 4'!$A$2:$A$9</c:f>
               <c:strCache>
@@ -1963,8 +2705,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Requerimiento 4'!$D$2:$D$9</c:f>
               <c:numCache>
@@ -1996,7 +2738,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2012,10 +2754,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="2108333696"/>
         <c:axId val="897738928"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="2108333696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2036,6 +2780,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tamaño del archivo</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2074,8 +2874,11 @@
         </c:txPr>
         <c:crossAx val="897738928"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="897738928"/>
         <c:scaling>
@@ -2097,6 +2900,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tiempo en ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2136,7 +2994,7 @@
         </c:txPr>
         <c:crossAx val="2108333696"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2293,8 +3151,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
@@ -2334,7 +3192,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9065380453035794E-2"/>
+                  <c:y val="-1.7032879336028942E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
             <c:strRef>
               <c:f>'Requerimiento 5'!$A$2:$A$9</c:f>
               <c:strCache>
@@ -2365,8 +3273,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Requerimiento 5'!$C$2:$C$9</c:f>
               <c:numCache>
@@ -2398,7 +3306,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2444,7 +3352,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.0985558084860244E-3"/>
+                  <c:y val="-6.3713290061715264E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-CO"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
             <c:strRef>
               <c:f>'Requerimiento 5'!$A$2:$A$9</c:f>
               <c:strCache>
@@ -2475,8 +3433,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>'Requerimiento 5'!$D$2:$D$9</c:f>
               <c:numCache>
@@ -2508,7 +3466,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -2524,10 +3482,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="1046328352"/>
         <c:axId val="1230412064"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="1046328352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
@@ -2548,6 +3508,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tamaño</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> del archivo</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2586,8 +3607,11 @@
         </c:txPr>
         <c:crossAx val="1230412064"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="1230412064"/>
         <c:scaling>
@@ -2609,6 +3633,74 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-MX"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-MX" baseline="0"/>
+                  <a:t> en ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.6066350710900472E-2"/>
+              <c:y val="0.38700920408597572"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2648,7 +3740,7 @@
         </c:txPr>
         <c:crossAx val="1046328352"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2934,7 +4026,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2961,8 +4053,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3063,7 +4155,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -3095,10 +4187,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -3138,23 +4230,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3259,8 +4350,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3392,20 +4483,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3419,17 +4509,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -5517,23 +6596,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1496218</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>76994</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1089526</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>658812</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>198438</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>515639</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>28646</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="4" name="Gráfico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695FFE6A-F5E6-104A-92CB-3518DAA25422}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{396C6FF8-AF52-C940-B373-BF0ABE956602}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5558,15 +6637,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1035050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5600,13 +6679,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>698499</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>202773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>811091</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -5640,16 +6719,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5683,12 +6762,12 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>812800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
@@ -6017,8 +7096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3875C312-3C75-1745-BFB5-EBB1E5D5DAC8}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17:J20"/>
+    <sheetView zoomScale="133" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6164,7 +7243,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6174,128 +7253,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>803</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>17.29</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>4016</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>82.06</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>8033</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>161.07</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>16066</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>284.66000000000003</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>24099</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>398.37</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>40166</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>656.52</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>64265</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1042.1400000000001</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>80332</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1434.66</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.27</v>
       </c>
     </row>
@@ -6309,7 +7388,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2714FA2B-2EDE-024D-B1B5-1B1F0A1A3EDE}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" zoomScale="119" workbookViewId="0">
+    <sheetView zoomScale="119" workbookViewId="0">
       <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
@@ -6319,128 +7398,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>803</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>147.59</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>4016</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>540.91999999999996</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>8033</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>1073.71</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>16066</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>2246.48</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>24099</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>3494.89</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>40166</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>6432.54</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>64265</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>10600.97</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>80332</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>13573.57</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.27</v>
       </c>
     </row>
@@ -6455,7 +7534,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection sqref="A1:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6465,128 +7544,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>803</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>10.35</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>4016</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>63.2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>8033</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>150.49</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>16066</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>265.45</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>24099</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>397.45</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>40166</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>637.5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>64265</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>1071.06</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>80332</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>1331.56</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.27</v>
       </c>
     </row>
@@ -6600,8 +7679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F04C907-9678-894B-A5CD-DE5E1A45CA54}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6611,128 +7690,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>803</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>2.4700000000000002</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>0.34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>4016</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>6.83</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>0.22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>8033</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>12.37</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0.3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>16066</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>20.67</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>24099</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>29</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>40166</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>48.37</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>64265</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>72.959999999999994</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>0.27</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>80332</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>84.33</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>0.27</v>
       </c>
     </row>
